--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122417.632229777</v>
+        <v>2116573.497224648</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256413</v>
+        <v>6239134.53325641</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>185.864430919943</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>3.10299853296011</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.546296656423316</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>188.7358530123306</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>358.5896709125798</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.4435927426894</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>72.27173600468056</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>348.8594584371755</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>309.7032087022494</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>118.2400173720389</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>135.5097179026753</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>34.32389483613274</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.0203559212046</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>80.15653200148863</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>158.4424567566473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>25.67249520086336</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>21.93083028802618</v>
       </c>
       <c r="U19" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.846722125166798</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.9214402838827</v>
+        <v>53.98342275463433</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
@@ -2298,7 +2298,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T23" t="n">
         <v>204.3497241367009</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T24" t="n">
         <v>190.9292778896378</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>124.6928438663151</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388269</v>
+        <v>67.01237890347653</v>
       </c>
       <c r="S25" t="n">
         <v>190.5400452173542</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T26" t="n">
         <v>204.3497241367009</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T27" t="n">
         <v>190.9292778896378</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>58.87967567244667</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>130.448205067321</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T29" t="n">
         <v>204.3497241367009</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T30" t="n">
         <v>190.9292778896378</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388269</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S31" t="n">
-        <v>120.9838287306676</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>88.4070978157676</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T32" t="n">
         <v>204.3497241367009</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T33" t="n">
         <v>190.9292778896378</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>23.86503793712938</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956057</v>
+        <v>28.68313558002588</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T35" t="n">
         <v>204.3497241367009</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T36" t="n">
         <v>190.9292778896378</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>130.4482050673214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>147.6863156136218</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.0203559212046</v>
@@ -3523,7 +3523,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T38" t="n">
         <v>204.3497241367009</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T39" t="n">
         <v>190.9292778896378</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.572083017992348</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388269</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>27.90250179141136</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T42" t="n">
         <v>190.9292778896378</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>226.1224112633603</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>159.8695218212705</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T44" t="n">
         <v>204.3497241367009</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T45" t="n">
         <v>190.9292778896378</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>182.9393678543452</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.57732969073833</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.083492693021</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C2" t="n">
-        <v>1937.083492693021</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>886.0270366642701</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>475.0411318746625</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>57.07732377284941</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>57.07732377284941</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.683332757143</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1073.534970481816</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>1073.534970481816</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>569.6207466258606</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,19 +4570,19 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457628</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1073.534970481816</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,22 +4649,22 @@
         <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641998</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598715</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.8809182883527</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9447353604458</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="D7" t="n">
-        <v>126.9447353604458</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="E7" t="n">
-        <v>126.9447353604458</v>
+        <v>365.9274674422035</v>
       </c>
       <c r="F7" t="n">
-        <v>126.9447353604458</v>
+        <v>219.0375199442931</v>
       </c>
       <c r="G7" t="n">
-        <v>126.9447353604458</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>126.9447353604458</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064339</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942396</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942396</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942396</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942396</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883527</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="W7" t="n">
-        <v>295.8809182883527</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="X7" t="n">
-        <v>295.8809182883527</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="Y7" t="n">
-        <v>295.8809182883527</v>
+        <v>513.8405610245966</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>413.2717739202503</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>413.2717739202503</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="D8" t="n">
-        <v>413.2717739202503</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="E8" t="n">
-        <v>413.2717739202503</v>
+        <v>945.1497906179575</v>
       </c>
       <c r="F8" t="n">
-        <v>406.3262731710468</v>
+        <v>534.16388582835</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>520.2404817669409</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1190.010945960184</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>799.8716139843721</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>579.2777040781987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.2777040781987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5047,10 +5047,10 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1611.438070502396</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M11" t="n">
-        <v>2127.824549292079</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N11" t="n">
         <v>2657.180509552855</v>
@@ -5120,25 +5120,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629257</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K12" t="n">
-        <v>488.143009511182</v>
+        <v>414.2869325418654</v>
       </c>
       <c r="L12" t="n">
-        <v>843.497549143383</v>
+        <v>769.6414721740664</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075619</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890737</v>
+        <v>1663.61554392142</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470408</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067689</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.7704915554834</v>
+        <v>232.596172147236</v>
       </c>
       <c r="C13" t="n">
-        <v>245.8343086275765</v>
+        <v>232.596172147236</v>
       </c>
       <c r="D13" t="n">
-        <v>95.71766921524075</v>
+        <v>232.596172147236</v>
       </c>
       <c r="E13" t="n">
-        <v>95.71766921524075</v>
+        <v>232.596172147236</v>
       </c>
       <c r="F13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.07864997267</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.07864997267</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T13" t="n">
-        <v>1878.408049128092</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.302744670118</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V13" t="n">
-        <v>1334.618256464231</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="W13" t="n">
-        <v>1045.201086427271</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="X13" t="n">
-        <v>817.2115355292533</v>
+        <v>635.0372161210058</v>
       </c>
       <c r="Y13" t="n">
-        <v>596.4189563857232</v>
+        <v>414.2446369774757</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5287,16 +5287,16 @@
         <v>1521.642956557055</v>
       </c>
       <c r="M14" t="n">
-        <v>2038.029435346739</v>
+        <v>2338.016390045385</v>
       </c>
       <c r="N14" t="n">
-        <v>2657.180509552855</v>
+        <v>2867.372350306161</v>
       </c>
       <c r="O14" t="n">
-        <v>3520.693250262004</v>
+        <v>3730.88509101531</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.940766252041</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1122.605169488108</v>
+        <v>345.6200460840453</v>
       </c>
       <c r="C16" t="n">
-        <v>953.668986560201</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="D16" t="n">
-        <v>803.5523471478652</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="E16" t="n">
-        <v>655.6392535654721</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="F16" t="n">
-        <v>508.7493060675617</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="G16" t="n">
-        <v>341.001780409306</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976252</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5460,28 +5460,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.07864997267</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.07864997267</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.07864997267</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U16" t="n">
-        <v>1913.07864997267</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V16" t="n">
-        <v>1913.07864997267</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="W16" t="n">
-        <v>1753.035764359895</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="X16" t="n">
-        <v>1525.046213461878</v>
+        <v>345.6200460840453</v>
       </c>
       <c r="Y16" t="n">
-        <v>1304.253634318348</v>
+        <v>345.6200460840453</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K17" t="n">
-        <v>597.7080858612026</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1441.67076877205</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M17" t="n">
-        <v>2403.075645719638</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N17" t="n">
-        <v>2932.431605980414</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O17" t="n">
-        <v>3795.944346689563</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5594,7 +5594,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K18" t="n">
         <v>488.143009511182</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>418.6560694596923</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C19" t="n">
-        <v>418.6560694596923</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D19" t="n">
-        <v>268.5394300473565</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E19" t="n">
-        <v>268.5394300473565</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F19" t="n">
-        <v>121.6494825494462</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G19" t="n">
         <v>95.71766921524075</v>
@@ -5703,22 +5703,22 @@
         <v>1628.77411916334</v>
       </c>
       <c r="T19" t="n">
-        <v>1406.816559682883</v>
+        <v>1606.621765337051</v>
       </c>
       <c r="U19" t="n">
-        <v>1117.71125522491</v>
+        <v>1317.516460879078</v>
       </c>
       <c r="V19" t="n">
-        <v>1117.71125522491</v>
+        <v>1062.831972673191</v>
       </c>
       <c r="W19" t="n">
-        <v>828.2940851879493</v>
+        <v>1062.831972673191</v>
       </c>
       <c r="X19" t="n">
-        <v>600.304534289932</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="Y19" t="n">
-        <v>600.304534289932</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
     <row r="20">
@@ -5737,16 +5737,16 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036601</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155748</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H20" t="n">
-        <v>141.555419892416</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
@@ -5791,10 +5791,10 @@
         <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5831,7 +5831,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K21" t="n">
         <v>488.143009511182</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>418.6560694596923</v>
+        <v>393.7474022099696</v>
       </c>
       <c r="C22" t="n">
-        <v>249.7198865317854</v>
+        <v>393.7474022099696</v>
       </c>
       <c r="D22" t="n">
-        <v>99.60324711944963</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E22" t="n">
-        <v>99.60324711944963</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>99.60324711944963</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>99.60324711944963</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
         <v>95.71766921524075</v>
@@ -5934,28 +5934,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R22" t="n">
-        <v>1821.238811302082</v>
+        <v>1858.549940119504</v>
       </c>
       <c r="S22" t="n">
-        <v>1628.77411916334</v>
+        <v>1858.549940119504</v>
       </c>
       <c r="T22" t="n">
-        <v>1406.816559682883</v>
+        <v>1636.592380639047</v>
       </c>
       <c r="U22" t="n">
-        <v>1117.71125522491</v>
+        <v>1347.487076181074</v>
       </c>
       <c r="V22" t="n">
-        <v>1117.71125522491</v>
+        <v>1092.802587975187</v>
       </c>
       <c r="W22" t="n">
-        <v>828.2940851879493</v>
+        <v>803.3854179382266</v>
       </c>
       <c r="X22" t="n">
-        <v>600.304534289932</v>
+        <v>575.3958670402093</v>
       </c>
       <c r="Y22" t="n">
-        <v>600.304534289932</v>
+        <v>575.3958670402093</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I23" t="n">
         <v>95.71766921524075</v>
@@ -5992,19 +5992,19 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7080858612028</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L23" t="n">
         <v>1446.817951496195</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443783</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N23" t="n">
-        <v>3251.012327070182</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O23" t="n">
-        <v>4114.525067779331</v>
+        <v>3857.072805131454</v>
       </c>
       <c r="P23" t="n">
         <v>4495.25810990396</v>
@@ -6068,13 +6068,13 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111818</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433829</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M24" t="n">
         <v>1277.536404075619</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>635.8903308789453</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="C25" t="n">
-        <v>466.9541479510384</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="D25" t="n">
-        <v>466.9541479510384</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E25" t="n">
-        <v>466.9541479510384</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F25" t="n">
-        <v>466.9541479510384</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G25" t="n">
-        <v>341.001780409306</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H25" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6150,49 +6150,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545533</v>
       </c>
       <c r="O25" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P25" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q25" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R25" t="n">
-        <v>1821.238811302082</v>
+        <v>1845.389378352997</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.77411916334</v>
+        <v>1652.924686214255</v>
       </c>
       <c r="T25" t="n">
-        <v>1628.77411916334</v>
+        <v>1652.924686214255</v>
       </c>
       <c r="U25" t="n">
-        <v>1628.77411916334</v>
+        <v>1363.819381756282</v>
       </c>
       <c r="V25" t="n">
-        <v>1374.089630957453</v>
+        <v>1109.134893550395</v>
       </c>
       <c r="W25" t="n">
-        <v>1084.672460920493</v>
+        <v>819.7177235134344</v>
       </c>
       <c r="X25" t="n">
-        <v>856.6829100224754</v>
+        <v>591.7281726154171</v>
       </c>
       <c r="Y25" t="n">
-        <v>635.8903308789453</v>
+        <v>591.7281726154171</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K26" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L26" t="n">
-        <v>1611.438070502395</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M26" t="n">
-        <v>2127.824549292079</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N26" t="n">
-        <v>2657.180509552855</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O26" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P26" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q26" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6305,13 +6305,13 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111818</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433829</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M27" t="n">
         <v>1277.536404075619</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3735.831577808391</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>3735.831577808391</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>3676.357157937232</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>3528.444064354839</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>3381.554116856929</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>3213.806591198673</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>3067.192078286992</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L28" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M28" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N28" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O28" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P28" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R28" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S28" t="n">
-        <v>4501.578929952707</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T28" t="n">
-        <v>4279.62137047225</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U28" t="n">
-        <v>3990.516066014277</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>3735.831577808391</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
-        <v>3735.831577808391</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
-        <v>3735.831577808391</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>3735.831577808391</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924157</v>
@@ -6466,25 +6466,25 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K29" t="n">
-        <v>597.7080858612028</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L29" t="n">
         <v>1446.817951496195</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443783</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872424</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.525067779331</v>
+        <v>4049.465812105078</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.25810990396</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6542,13 +6542,13 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111818</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433829</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M30" t="n">
         <v>1277.536404075619</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3361.719684781066</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C31" t="n">
-        <v>3361.719684781066</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D31" t="n">
-        <v>3361.719684781066</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E31" t="n">
-        <v>3213.806591198673</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F31" t="n">
-        <v>3213.806591198673</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G31" t="n">
-        <v>3213.806591198673</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>3067.192078286992</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J31" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L31" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M31" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N31" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O31" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P31" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q31" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R31" t="n">
-        <v>4694.043622091449</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S31" t="n">
-        <v>4571.837734484714</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T31" t="n">
-        <v>4349.880175004258</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U31" t="n">
-        <v>4060.774870546285</v>
+        <v>1317.516460879078</v>
       </c>
       <c r="V31" t="n">
-        <v>4060.774870546285</v>
+        <v>1062.831972673191</v>
       </c>
       <c r="W31" t="n">
-        <v>3771.357700509324</v>
+        <v>1062.831972673191</v>
       </c>
       <c r="X31" t="n">
-        <v>3543.368149611306</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="Y31" t="n">
-        <v>3543.368149611306</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
     <row r="32">
@@ -6703,16 +6703,16 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K32" t="n">
-        <v>911.1416242268255</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L32" t="n">
-        <v>1760.251489861818</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M32" t="n">
-        <v>2721.656366809406</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N32" t="n">
-        <v>3251.012327070182</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O32" t="n">
         <v>4114.525067779331</v>
@@ -6779,13 +6779,13 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111818</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433829</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M33" t="n">
         <v>1277.536404075619</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3552.550163281232</v>
+        <v>738.5463968580352</v>
       </c>
       <c r="C34" t="n">
-        <v>3552.550163281232</v>
+        <v>569.6102139301283</v>
       </c>
       <c r="D34" t="n">
-        <v>3552.550163281232</v>
+        <v>419.4935745177926</v>
       </c>
       <c r="E34" t="n">
-        <v>3528.444064354839</v>
+        <v>271.5804809353995</v>
       </c>
       <c r="F34" t="n">
-        <v>3381.554116856929</v>
+        <v>124.6905334374891</v>
       </c>
       <c r="G34" t="n">
-        <v>3213.806591198673</v>
+        <v>124.6905334374891</v>
       </c>
       <c r="H34" t="n">
-        <v>3067.192078286992</v>
+        <v>124.6905334374891</v>
       </c>
       <c r="I34" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L34" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M34" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N34" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O34" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P34" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q34" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R34" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S34" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T34" t="n">
-        <v>4472.086062610992</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.980758153019</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="V34" t="n">
-        <v>4182.980758153019</v>
+        <v>1658.394161766783</v>
       </c>
       <c r="W34" t="n">
-        <v>4182.980758153019</v>
+        <v>1368.976991729822</v>
       </c>
       <c r="X34" t="n">
-        <v>3954.991207255002</v>
+        <v>1140.987440831805</v>
       </c>
       <c r="Y34" t="n">
-        <v>3734.198628111472</v>
+        <v>920.194861688275</v>
       </c>
     </row>
     <row r="35">
@@ -6922,7 +6922,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
         <v>855.3313972036599</v>
@@ -6931,7 +6931,7 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
@@ -6940,16 +6940,16 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K35" t="n">
-        <v>597.7080858612028</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L35" t="n">
         <v>1446.817951496195</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443783</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872424</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O35" t="n">
         <v>4114.525067779331</v>
@@ -7016,13 +7016,13 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111818</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433829</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M36" t="n">
         <v>1277.536404075619</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>227.4835329196058</v>
+        <v>806.0060074145392</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524075</v>
+        <v>637.0698244866323</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>637.0698244866323</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>637.0698244866323</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>490.179876988722</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7098,49 +7098,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N37" t="n">
         <v>1318.687152545533</v>
       </c>
       <c r="O37" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P37" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S37" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T37" t="n">
-        <v>1691.121090492214</v>
+        <v>1691.121090492213</v>
       </c>
       <c r="U37" t="n">
-        <v>1402.015786034241</v>
+        <v>1691.121090492213</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.331297828354</v>
+        <v>1436.436602286326</v>
       </c>
       <c r="W37" t="n">
-        <v>857.914127791393</v>
+        <v>1436.436602286326</v>
       </c>
       <c r="X37" t="n">
-        <v>629.9245768933756</v>
+        <v>1208.447051388309</v>
       </c>
       <c r="Y37" t="n">
-        <v>409.1319977498455</v>
+        <v>987.654472244779</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
         <v>1266.317301993267</v>
@@ -7168,34 +7168,34 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K38" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1446.817951496195</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M38" t="n">
-        <v>2408.222828443783</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N38" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7253,22 +7253,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K39" t="n">
-        <v>414.2869325418657</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L39" t="n">
-        <v>769.6414721740668</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O39" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
         <v>2436.525948037006</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>345.6200460840457</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C40" t="n">
-        <v>345.6200460840457</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D40" t="n">
-        <v>345.6200460840457</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E40" t="n">
-        <v>345.6200460840457</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F40" t="n">
-        <v>345.6200460840457</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7335,25 +7335,25 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N40" t="n">
         <v>1318.687152545533</v>
       </c>
       <c r="O40" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P40" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q40" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R40" t="n">
         <v>1821.238811302082</v>
@@ -7362,22 +7362,22 @@
         <v>1628.77411916334</v>
       </c>
       <c r="T40" t="n">
-        <v>1406.816559682884</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U40" t="n">
         <v>1117.71125522491</v>
       </c>
       <c r="V40" t="n">
-        <v>863.0267670190236</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="W40" t="n">
-        <v>573.6095969820631</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="X40" t="n">
-        <v>345.6200460840457</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="Y40" t="n">
-        <v>345.6200460840457</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K41" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1446.817951496195</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443783</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N41" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,13 +7490,13 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111818</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433829</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M42" t="n">
         <v>1277.536404075619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C43" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D43" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E43" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F43" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7572,49 +7572,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545533</v>
       </c>
       <c r="O43" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P43" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S43" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T43" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U43" t="n">
-        <v>1623.973345514697</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V43" t="n">
-        <v>1369.28885730881</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W43" t="n">
-        <v>1079.87168727185</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X43" t="n">
-        <v>851.8821363738323</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y43" t="n">
-        <v>690.3977708978015</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1327.278034693953</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M44" t="n">
-        <v>2288.682911641541</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N44" t="n">
-        <v>3251.012327070182</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7727,13 +7727,13 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111818</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433829</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M45" t="n">
         <v>1277.536404075619</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>876.0224776233304</v>
+        <v>264.6538521431477</v>
       </c>
       <c r="C46" t="n">
-        <v>707.0862946954235</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D46" t="n">
-        <v>556.9696552830877</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>556.9696552830877</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H46" t="n">
         <v>95.71766921524075</v>
@@ -7809,49 +7809,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545533</v>
       </c>
       <c r="O46" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P46" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q46" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T46" t="n">
-        <v>1691.121090492214</v>
+        <v>1728.291409715756</v>
       </c>
       <c r="U46" t="n">
-        <v>1691.121090492214</v>
+        <v>1439.186105257782</v>
       </c>
       <c r="V46" t="n">
-        <v>1436.436602286327</v>
+        <v>1184.501617051895</v>
       </c>
       <c r="W46" t="n">
-        <v>1147.019432249366</v>
+        <v>895.0844470149349</v>
       </c>
       <c r="X46" t="n">
-        <v>919.0298813513489</v>
+        <v>667.0948961169175</v>
       </c>
       <c r="Y46" t="n">
-        <v>876.0224776233304</v>
+        <v>446.3023169733874</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914202</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747269</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>90.70213529832387</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>90.70213529832358</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880461</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>74.60209794880473</v>
       </c>
       <c r="R12" t="n">
         <v>3.419393410990551</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>303.0171259582285</v>
       </c>
       <c r="N14" t="n">
-        <v>90.70213529832358</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>412.4620400816175</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>90.70213529832358</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K18" t="n">
-        <v>74.60209794880461</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K21" t="n">
-        <v>74.60209794880461</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9649,13 +9649,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>316.5995337026488</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>260.0527905534111</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>90.7021352983225</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534112</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0527905534096</v>
+        <v>194.3363706804282</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>316.5995337026491</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,10 +10360,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534112</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0527905534096</v>
+        <v>260.0527905534112</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K36" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832358</v>
       </c>
       <c r="O38" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>90.70213529832358</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K42" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>296.9138238411149</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>90.70213529832358</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>9.911330120255968</v>
       </c>
       <c r="G13" t="n">
         <v>166.0700504016732</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>185.4140890495194</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.99183578107538</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>128.0805415799437</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>140.3975552008098</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>145.148367782564</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>197.807153597626</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>141.3016456573972</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956058</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>36.93801752924838</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>41.37720653535807</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>23.90906138040617</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>89.73579734576569</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>60.09184015003328</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>69.55621648668667</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>197.8071535976259</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.5689247094398</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>68.9997667195347</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S34" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>36.79861603130647</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>18.38373478805136</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388269</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S37" t="n">
         <v>190.5400452173542</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>161.4979673836808</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>197.8071535976258</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388269</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>60.09184015003316</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.71513153082429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388269</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.79861603130689</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.0073236613565</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855570.8336490664</v>
+        <v>855570.8336490665</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855570.8336490665</v>
+        <v>855570.8336490664</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855570.8336490665</v>
+        <v>855570.8336490664</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855570.8336490665</v>
+        <v>855570.8336490664</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855570.8336490665</v>
+        <v>855570.8336490664</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855570.8336490665</v>
+        <v>855570.8336490664</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855570.8336490665</v>
+        <v>855570.8336490664</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049993</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>555113.0228891707</v>
       </c>
       <c r="F2" t="n">
-        <v>555113.0228891709</v>
+        <v>555113.0228891707</v>
       </c>
       <c r="G2" t="n">
-        <v>555113.0228891704</v>
+        <v>555113.0228891706</v>
       </c>
       <c r="H2" t="n">
-        <v>555113.0228891708</v>
+        <v>555113.0228891706</v>
       </c>
       <c r="I2" t="n">
         <v>555113.0228891707</v>
@@ -26340,22 +26340,22 @@
         <v>555113.0228891706</v>
       </c>
       <c r="K2" t="n">
-        <v>555113.0228891709</v>
+        <v>555113.0228891704</v>
       </c>
       <c r="L2" t="n">
-        <v>555113.0228891708</v>
+        <v>555113.0228891706</v>
       </c>
       <c r="M2" t="n">
         <v>555113.0228891704</v>
       </c>
       <c r="N2" t="n">
+        <v>555113.0228891703</v>
+      </c>
+      <c r="O2" t="n">
+        <v>555113.0228891703</v>
+      </c>
+      <c r="P2" t="n">
         <v>555113.0228891706</v>
-      </c>
-      <c r="O2" t="n">
-        <v>555113.0228891706</v>
-      </c>
-      <c r="P2" t="n">
-        <v>555113.0228891703</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>3.407704980418203e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518279</v>
+        <v>708251.096751828</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>23693.12563581164</v>
+      </c>
+      <c r="F4" t="n">
         <v>23693.12563581165</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>23693.12563581164</v>
-      </c>
-      <c r="G4" t="n">
-        <v>23693.12563581166</v>
       </c>
       <c r="H4" t="n">
         <v>23693.12563581165</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581166</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581166</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581165</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581166</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581166</v>
       </c>
       <c r="N4" t="n">
         <v>23693.12563581164</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290304.3147653848</v>
+        <v>-290304.3147653844</v>
       </c>
       <c r="C6" t="n">
         <v>299663.56444916</v>
       </c>
       <c r="D6" t="n">
-        <v>299663.5644491591</v>
+        <v>299663.5644491593</v>
       </c>
       <c r="E6" t="n">
-        <v>-272798.912890538</v>
+        <v>-273499.4920339605</v>
       </c>
       <c r="F6" t="n">
-        <v>435452.1838612901</v>
+        <v>434751.6047178674</v>
       </c>
       <c r="G6" t="n">
-        <v>435452.1838612895</v>
+        <v>434751.6047178673</v>
       </c>
       <c r="H6" t="n">
-        <v>435452.18386129</v>
+        <v>434751.6047178673</v>
       </c>
       <c r="I6" t="n">
-        <v>435452.1838612899</v>
+        <v>434751.6047178673</v>
       </c>
       <c r="J6" t="n">
-        <v>259028.9646686968</v>
+        <v>258328.3855252744</v>
       </c>
       <c r="K6" t="n">
-        <v>435452.1838612901</v>
+        <v>434751.6047178671</v>
       </c>
       <c r="L6" t="n">
-        <v>435452.18386129</v>
+        <v>434751.6047178672</v>
       </c>
       <c r="M6" t="n">
-        <v>305321.9438918802</v>
+        <v>304621.3647484578</v>
       </c>
       <c r="N6" t="n">
-        <v>435452.1838612898</v>
+        <v>434751.6047178671</v>
       </c>
       <c r="O6" t="n">
-        <v>435452.1838612898</v>
+        <v>434751.6047178671</v>
       </c>
       <c r="P6" t="n">
-        <v>435452.1838612895</v>
+        <v>434751.6047178673</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170863</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490193</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="E3" t="n">
         <v>687.4987572731065</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>168.81861070074</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>148.8283177119011</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>203.5992422935956</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.9471886083524</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>55.19449910821515</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>3.86620951636155</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>62.69388578765769</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853704</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>64.92471158361946</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>14.21956406210774</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>107.4696380169983</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H23" t="n">
         <v>43.85694049883995</v>
       </c>
       <c r="I23" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q23" t="n">
         <v>462.4490353515542</v>
       </c>
       <c r="R23" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S23" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T23" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,43 +32782,43 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I24" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J24" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L24" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P24" t="n">
         <v>437.5332504418872</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R24" t="n">
         <v>142.2601105529734</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U24" t="n">
         <v>0.1507418520976689</v>
@@ -32864,13 +32864,13 @@
         <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769772</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447415</v>
       </c>
       <c r="K25" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L25" t="n">
         <v>285.5897469024692</v>
@@ -32879,25 +32879,25 @@
         <v>301.1143454714</v>
       </c>
       <c r="N25" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O25" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P25" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q25" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H26" t="n">
         <v>43.85694049883995</v>
       </c>
       <c r="I26" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q26" t="n">
         <v>462.4490353515542</v>
       </c>
       <c r="R26" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S26" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T26" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,43 +33019,43 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I27" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J27" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L27" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P27" t="n">
         <v>437.5332504418872</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R27" t="n">
         <v>142.2601105529734</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U27" t="n">
         <v>0.1507418520976689</v>
@@ -33101,13 +33101,13 @@
         <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769772</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447415</v>
       </c>
       <c r="K28" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L28" t="n">
         <v>285.5897469024692</v>
@@ -33116,25 +33116,25 @@
         <v>301.1143454714</v>
       </c>
       <c r="N28" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O28" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P28" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q28" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H29" t="n">
         <v>43.85694049883995</v>
       </c>
       <c r="I29" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q29" t="n">
         <v>462.4490353515542</v>
       </c>
       <c r="R29" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S29" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T29" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I30" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J30" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L30" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P30" t="n">
         <v>437.5332504418872</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R30" t="n">
         <v>142.2601105529734</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U30" t="n">
         <v>0.1507418520976689</v>
@@ -33338,13 +33338,13 @@
         <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769772</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447415</v>
       </c>
       <c r="K31" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L31" t="n">
         <v>285.5897469024692</v>
@@ -33353,25 +33353,25 @@
         <v>301.1143454714</v>
       </c>
       <c r="N31" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O31" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P31" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q31" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H32" t="n">
         <v>43.85694049883995</v>
       </c>
       <c r="I32" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q32" t="n">
         <v>462.4490353515542</v>
       </c>
       <c r="R32" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S32" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T32" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I33" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J33" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L33" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P33" t="n">
         <v>437.5332504418872</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R33" t="n">
         <v>142.2601105529734</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U33" t="n">
         <v>0.1507418520976689</v>
@@ -33575,13 +33575,13 @@
         <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769772</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447415</v>
       </c>
       <c r="K34" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L34" t="n">
         <v>285.5897469024692</v>
@@ -33590,25 +33590,25 @@
         <v>301.1143454714</v>
       </c>
       <c r="N34" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O34" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P34" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q34" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H35" t="n">
         <v>43.85694049883995</v>
       </c>
       <c r="I35" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q35" t="n">
         <v>462.4490353515542</v>
       </c>
       <c r="R35" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S35" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T35" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I36" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J36" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L36" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P36" t="n">
         <v>437.5332504418872</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R36" t="n">
         <v>142.2601105529734</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U36" t="n">
         <v>0.1507418520976689</v>
@@ -33812,13 +33812,13 @@
         <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769772</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447415</v>
       </c>
       <c r="K37" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L37" t="n">
         <v>285.5897469024692</v>
@@ -33827,25 +33827,25 @@
         <v>301.1143454714</v>
       </c>
       <c r="N37" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O37" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P37" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q37" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H38" t="n">
         <v>43.85694049883995</v>
       </c>
       <c r="I38" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q38" t="n">
         <v>462.4490353515542</v>
       </c>
       <c r="R38" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S38" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T38" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I39" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J39" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L39" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P39" t="n">
         <v>437.5332504418872</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R39" t="n">
         <v>142.2601105529734</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U39" t="n">
         <v>0.1507418520976689</v>
@@ -34049,13 +34049,13 @@
         <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769772</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447415</v>
       </c>
       <c r="K40" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L40" t="n">
         <v>285.5897469024692</v>
@@ -34064,25 +34064,25 @@
         <v>301.1143454714</v>
       </c>
       <c r="N40" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O40" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P40" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q40" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H41" t="n">
         <v>43.85694049883995</v>
       </c>
       <c r="I41" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q41" t="n">
         <v>462.4490353515542</v>
       </c>
       <c r="R41" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S41" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T41" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,43 +34204,43 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I42" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J42" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L42" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P42" t="n">
         <v>437.5332504418872</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R42" t="n">
         <v>142.2601105529734</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U42" t="n">
         <v>0.1507418520976689</v>
@@ -34286,13 +34286,13 @@
         <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769772</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447415</v>
       </c>
       <c r="K43" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L43" t="n">
         <v>285.5897469024692</v>
@@ -34301,25 +34301,25 @@
         <v>301.1143454714</v>
       </c>
       <c r="N43" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O43" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P43" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q43" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H44" t="n">
         <v>43.85694049883995</v>
       </c>
       <c r="I44" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q44" t="n">
         <v>462.4490353515542</v>
       </c>
       <c r="R44" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S44" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T44" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,43 +34441,43 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I45" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J45" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L45" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P45" t="n">
         <v>437.5332504418872</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R45" t="n">
         <v>142.2601105529734</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U45" t="n">
         <v>0.1507418520976689</v>
@@ -34523,13 +34523,13 @@
         <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769772</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447415</v>
       </c>
       <c r="K46" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L46" t="n">
         <v>285.5897469024692</v>
@@ -34538,25 +34538,25 @@
         <v>301.1143454714</v>
       </c>
       <c r="N46" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O46" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P46" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q46" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770683</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047531</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713856</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735645</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535759</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>648.7905592051115</v>
       </c>
       <c r="L11" t="n">
-        <v>530.7276537125123</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M11" t="n">
         <v>521.602503827963</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901623996</v>
+        <v>625.4051254607232</v>
       </c>
       <c r="O11" t="n">
         <v>872.2350916254035</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.239820351197</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K12" t="n">
         <v>232.149412270966</v>
@@ -35509,7 +35509,7 @@
         <v>303.5588430275569</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106821</v>
+        <v>227.0997147594869</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>440.0255184141884</v>
       </c>
       <c r="M14" t="n">
-        <v>521.602503827963</v>
+        <v>824.6196297861915</v>
       </c>
       <c r="N14" t="n">
-        <v>625.4051254607232</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O14" t="n">
         <v>872.2350916254035</v>
@@ -35667,7 +35667,7 @@
         <v>706.3775386004006</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R14" t="n">
         <v>119.1340348585824</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811662</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K17" t="n">
-        <v>324.6451466339468</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L17" t="n">
-        <v>852.487558495806</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207955</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901623996</v>
+        <v>625.4051254607232</v>
       </c>
       <c r="O17" t="n">
         <v>872.2350916254035</v>
@@ -35904,10 +35904,10 @@
         <v>706.3775386004006</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771047</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498559998</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239234</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K18" t="n">
-        <v>306.7515102197706</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264657</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239234</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K21" t="n">
-        <v>306.7515102197706</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264657</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K23" t="n">
-        <v>324.6451466339469</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L23" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N23" t="n">
-        <v>851.3025238650487</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O23" t="n">
-        <v>872.2350916254037</v>
+        <v>491.4349103626581</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289181</v>
+        <v>644.6316209823291</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498560004</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511966</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M24" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859779</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383719</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P24" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K25" t="n">
         <v>200.9075269715707</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M25" t="n">
         <v>340.6982224332406</v>
       </c>
       <c r="N25" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O25" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P25" t="n">
         <v>229.6061850928529</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K26" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L26" t="n">
-        <v>530.727653712511</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N26" t="n">
-        <v>534.7029901623998</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O26" t="n">
-        <v>872.2350916254037</v>
+        <v>751.4877009160693</v>
       </c>
       <c r="P26" t="n">
-        <v>706.3775386004008</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511966</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M27" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859779</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383719</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P27" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K28" t="n">
         <v>200.9075269715707</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M28" t="n">
         <v>340.6982224332406</v>
       </c>
       <c r="N28" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O28" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P28" t="n">
         <v>229.6061850928529</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K29" t="n">
-        <v>324.6451466339469</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L29" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N29" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O29" t="n">
-        <v>751.487700916068</v>
+        <v>685.7712810430863</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289181</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511966</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M30" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859779</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383719</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P30" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K31" t="n">
         <v>200.9075269715707</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M31" t="n">
         <v>340.6982224332406</v>
       </c>
       <c r="N31" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O31" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P31" t="n">
         <v>229.6061850928529</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K32" t="n">
-        <v>641.244680336596</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L32" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M32" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901623998</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254037</v>
+        <v>751.4877009160693</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289181</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41761498560004</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511966</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M33" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859779</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383719</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P33" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K34" t="n">
         <v>200.9075269715707</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M34" t="n">
         <v>340.6982224332406</v>
       </c>
       <c r="N34" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O34" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P34" t="n">
         <v>229.6061850928529</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339469</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L35" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N35" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O35" t="n">
-        <v>751.487700916068</v>
+        <v>751.4877009160693</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289181</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560004</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239237</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K36" t="n">
-        <v>306.7515102197703</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M36" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859779</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383719</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P36" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K37" t="n">
         <v>200.9075269715707</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M37" t="n">
         <v>340.6982224332406</v>
       </c>
       <c r="N37" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O37" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P37" t="n">
         <v>229.6061850928529</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K38" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L38" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M38" t="n">
-        <v>971.1160373207957</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N38" t="n">
-        <v>972.049914574384</v>
+        <v>625.4051254607232</v>
       </c>
       <c r="O38" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R38" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.63772240239237</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M39" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859779</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383719</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P39" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K40" t="n">
         <v>200.9075269715707</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M40" t="n">
         <v>340.6982224332406</v>
       </c>
       <c r="N40" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O40" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P40" t="n">
         <v>229.6061850928529</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K41" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L41" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207957</v>
+        <v>612.3046391262866</v>
       </c>
       <c r="N41" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O41" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R41" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239237</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K42" t="n">
-        <v>306.7515102197703</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M42" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859779</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383719</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P42" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K43" t="n">
         <v>200.9075269715707</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M43" t="n">
         <v>340.6982224332406</v>
       </c>
       <c r="N43" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O43" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P43" t="n">
         <v>229.6061850928529</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L44" t="n">
-        <v>736.9393422553035</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207957</v>
+        <v>612.3046391262866</v>
       </c>
       <c r="N44" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511966</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M45" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859779</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383719</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P45" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K46" t="n">
         <v>200.9075269715707</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M46" t="n">
         <v>340.6982224332406</v>
       </c>
       <c r="N46" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O46" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P46" t="n">
         <v>229.6061850928529</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116573.497224648</v>
+        <v>2120124.057012041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.53325641</v>
+        <v>6239134.533256408</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>89.13491008362027</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.10299853296011</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>8.546296656423316</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365806</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>358.5896709125798</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>188.5970350096847</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>163.4435927426894</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>289.0747570139395</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>309.7032087022494</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>72.65793777463476</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169269</v>
       </c>
       <c r="I11" t="n">
         <v>45.37937317040317</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5097179026753</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>165.6178152390042</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.0203559212046</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040317</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>80.15653200148863</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.9214402838827</v>
+        <v>85.25646555478468</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>35.94040194741621</v>
       </c>
       <c r="T19" t="n">
-        <v>21.93083028802618</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.98342275463433</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>222.3991863292725</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>64.54990025385023</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.148367782564</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.01237890347653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>119.7401400319043</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>130.448205067321</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
@@ -2812,7 +2812,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040317</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>90.7308377216486</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>88.4070978157676</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>28.68313558002588</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>226.1224112633603</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040317</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6863156136218</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>177.2986085982381</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.0203559212046</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>130.448205067321</v>
       </c>
       <c r="T40" t="n">
         <v>219.7379838856521</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>27.90250179141136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145558</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>44.28827234285543</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>226.1224112633603</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.4792262826223</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>182.9393678543452</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.815289262514</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1271.815289262514</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>886.0270366642701</v>
+        <v>554.9641493206996</v>
       </c>
       <c r="F2" t="n">
-        <v>475.0411318746625</v>
+        <v>143.978244531092</v>
       </c>
       <c r="G2" t="n">
-        <v>57.07732377284941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>57.07732377284941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533155</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073314</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
         <v>1836.345445977175</v>
@@ -4348,7 +4348,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
         <v>2697.149091018222</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4491,37 +4491,37 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V4" t="n">
         <v>571.3497027553424</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154681</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="D5" t="n">
-        <v>980.6066514154681</v>
+        <v>1612.648978880278</v>
       </c>
       <c r="E5" t="n">
-        <v>980.6066514154681</v>
+        <v>1226.860726282034</v>
       </c>
       <c r="F5" t="n">
-        <v>569.6207466258606</v>
+        <v>815.874821492426</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252749</v>
+        <v>397.9110133906129</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,13 +4570,13 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572643</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050018</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245966</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245966</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245966</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>365.9274674422035</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>219.0375199442931</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4728,49 +4728,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245966</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245966</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245966</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245966</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245966</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245966</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245966</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>1525.597764264521</v>
       </c>
       <c r="C8" t="n">
-        <v>1689.203741822952</v>
+        <v>1156.63524732411</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.938043216202</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>945.1497906179575</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>534.16388582835</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>520.2404817669409</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1912.197604328643</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924157</v>
@@ -5047,19 +5047,19 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557055</v>
+        <v>1935.127558962001</v>
       </c>
       <c r="M11" t="n">
-        <v>2038.029435346739</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552855</v>
+        <v>2980.86999801246</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>3844.38273872161</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4225.115780846239</v>
       </c>
       <c r="Q11" t="n">
         <v>4667.940766252041</v>
@@ -5077,13 +5077,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5120,25 +5120,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K12" t="n">
-        <v>414.2869325418654</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740664</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.61554392142</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.146616470408</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P12" t="n">
-        <v>2362.669871067689</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>232.596172147236</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C13" t="n">
-        <v>232.596172147236</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D13" t="n">
-        <v>232.596172147236</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E13" t="n">
-        <v>232.596172147236</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.77411916334</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682883</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U13" t="n">
-        <v>1117.71125522491</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V13" t="n">
-        <v>863.0267670190232</v>
+        <v>954.8666056896117</v>
       </c>
       <c r="W13" t="n">
-        <v>863.0267670190232</v>
+        <v>665.4494356526511</v>
       </c>
       <c r="X13" t="n">
-        <v>635.0372161210058</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.2446369774757</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5284,19 +5284,19 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.642956557055</v>
+        <v>1935.127558962001</v>
       </c>
       <c r="M14" t="n">
-        <v>2338.016390045385</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N14" t="n">
-        <v>2867.372350306161</v>
+        <v>2980.86999801246</v>
       </c>
       <c r="O14" t="n">
-        <v>3730.88509101531</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.940766252041</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>345.6200460840453</v>
+        <v>363.3234504255321</v>
       </c>
       <c r="C16" t="n">
-        <v>176.6838631561384</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="D16" t="n">
-        <v>176.6838631561384</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="E16" t="n">
-        <v>176.6838631561384</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="F16" t="n">
-        <v>176.6838631561384</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="G16" t="n">
-        <v>176.6838631561384</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5460,28 +5460,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302082</v>
+        <v>1826.96100799814</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.77411916334</v>
+        <v>1826.96100799814</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682883</v>
+        <v>1826.96100799814</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.71125522491</v>
+        <v>1537.855703540167</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190232</v>
+        <v>1283.17121533428</v>
       </c>
       <c r="W16" t="n">
-        <v>573.6095969820626</v>
+        <v>993.7540452973193</v>
       </c>
       <c r="X16" t="n">
-        <v>345.6200460840453</v>
+        <v>765.764494399302</v>
       </c>
       <c r="Y16" t="n">
-        <v>345.6200460840453</v>
+        <v>544.9719152557718</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>440.1593205155741</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
@@ -5521,19 +5521,19 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.642956557055</v>
+        <v>1935.127558962001</v>
       </c>
       <c r="M17" t="n">
-        <v>2038.029435346739</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N17" t="n">
-        <v>2657.180509552855</v>
+        <v>3413.843453180325</v>
       </c>
       <c r="O17" t="n">
-        <v>3520.693250262004</v>
+        <v>3900.364014439356</v>
       </c>
       <c r="P17" t="n">
-        <v>4220.007013476401</v>
+        <v>4281.097056563985</v>
       </c>
       <c r="Q17" t="n">
         <v>4667.940766252041</v>
@@ -5594,13 +5594,13 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629257</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K18" t="n">
-        <v>488.143009511182</v>
+        <v>414.2869325418654</v>
       </c>
       <c r="L18" t="n">
-        <v>843.497549143383</v>
+        <v>769.6414721740664</v>
       </c>
       <c r="M18" t="n">
         <v>1277.536404075619</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.4013778014034</v>
+        <v>708.2749519650746</v>
       </c>
       <c r="C19" t="n">
-        <v>263.4651948734965</v>
+        <v>539.3387690371677</v>
       </c>
       <c r="D19" t="n">
-        <v>263.4651948734965</v>
+        <v>389.222129624832</v>
       </c>
       <c r="E19" t="n">
-        <v>263.4651948734965</v>
+        <v>389.222129624832</v>
       </c>
       <c r="F19" t="n">
-        <v>263.4651948734965</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G19" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H19" t="n">
         <v>95.71766921524075</v>
@@ -5697,28 +5697,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R19" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S19" t="n">
-        <v>1628.77411916334</v>
+        <v>1876.775213662149</v>
       </c>
       <c r="T19" t="n">
-        <v>1606.621765337051</v>
+        <v>1654.817654181692</v>
       </c>
       <c r="U19" t="n">
-        <v>1317.516460879078</v>
+        <v>1654.817654181692</v>
       </c>
       <c r="V19" t="n">
-        <v>1062.831972673191</v>
+        <v>1400.133165975805</v>
       </c>
       <c r="W19" t="n">
-        <v>1062.831972673191</v>
+        <v>1110.715995938844</v>
       </c>
       <c r="X19" t="n">
-        <v>834.8424217751733</v>
+        <v>1110.715995938844</v>
       </c>
       <c r="Y19" t="n">
-        <v>614.0498426316432</v>
+        <v>889.9234167953143</v>
       </c>
     </row>
     <row r="20">
@@ -5737,7 +5737,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F20" t="n">
         <v>855.3313972036599</v>
@@ -5755,22 +5755,22 @@
         <v>443.7150397139483</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.017693327009</v>
+        <v>765.1137348815557</v>
       </c>
       <c r="L20" t="n">
-        <v>1611.438070502396</v>
+        <v>1614.223600516548</v>
       </c>
       <c r="M20" t="n">
-        <v>2127.824549292079</v>
+        <v>2575.628477464136</v>
       </c>
       <c r="N20" t="n">
-        <v>2657.180509552855</v>
+        <v>3537.957892892776</v>
       </c>
       <c r="O20" t="n">
-        <v>3520.693250262004</v>
+        <v>4049.465812105078</v>
       </c>
       <c r="P20" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q20" t="n">
         <v>4667.940766252041</v>
@@ -5791,10 +5791,10 @@
         <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>393.7474022099696</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="C22" t="n">
-        <v>393.7474022099696</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="D22" t="n">
-        <v>243.6307627976338</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E22" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F22" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G22" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H22" t="n">
         <v>95.71766921524075</v>
@@ -5934,28 +5934,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R22" t="n">
-        <v>1858.549940119504</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S22" t="n">
-        <v>1858.549940119504</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T22" t="n">
-        <v>1636.592380639047</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U22" t="n">
-        <v>1347.487076181074</v>
+        <v>1182.170916926042</v>
       </c>
       <c r="V22" t="n">
-        <v>1092.802587975187</v>
+        <v>927.4864287201553</v>
       </c>
       <c r="W22" t="n">
-        <v>803.3854179382266</v>
+        <v>638.0692586831947</v>
       </c>
       <c r="X22" t="n">
-        <v>575.3958670402093</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="Y22" t="n">
-        <v>575.3958670402093</v>
+        <v>410.0797077851773</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>597.7080858612026</v>
       </c>
       <c r="L23" t="n">
-        <v>1446.817951496195</v>
+        <v>1052.026938266395</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443782</v>
+        <v>2013.431815213983</v>
       </c>
       <c r="N23" t="n">
-        <v>3370.552243872422</v>
+        <v>2975.761230642623</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.072805131454</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.0797077851773</v>
+        <v>771.2733255834655</v>
       </c>
       <c r="C25" t="n">
-        <v>410.0797077851773</v>
+        <v>602.3371426555586</v>
       </c>
       <c r="D25" t="n">
-        <v>410.0797077851773</v>
+        <v>537.1352232072251</v>
       </c>
       <c r="E25" t="n">
-        <v>410.0797077851773</v>
+        <v>389.222129624832</v>
       </c>
       <c r="F25" t="n">
-        <v>410.0797077851773</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G25" t="n">
         <v>242.3321821269216</v>
@@ -6171,28 +6171,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R25" t="n">
-        <v>1845.389378352997</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S25" t="n">
-        <v>1652.924686214255</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T25" t="n">
-        <v>1652.924686214255</v>
+        <v>1691.121090492213</v>
       </c>
       <c r="U25" t="n">
-        <v>1363.819381756282</v>
+        <v>1691.121090492213</v>
       </c>
       <c r="V25" t="n">
-        <v>1109.134893550395</v>
+        <v>1691.121090492213</v>
       </c>
       <c r="W25" t="n">
-        <v>819.7177235134344</v>
+        <v>1401.703920455253</v>
       </c>
       <c r="X25" t="n">
-        <v>591.7281726154171</v>
+        <v>1173.714369557235</v>
       </c>
       <c r="Y25" t="n">
-        <v>591.7281726154171</v>
+        <v>952.9217904137053</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7080858612026</v>
+        <v>765.1137348815557</v>
       </c>
       <c r="L26" t="n">
-        <v>1446.817951496195</v>
+        <v>1614.223600516548</v>
       </c>
       <c r="M26" t="n">
-        <v>2408.222828443782</v>
+        <v>2575.628477464136</v>
       </c>
       <c r="N26" t="n">
-        <v>3370.552243872422</v>
+        <v>3537.957892892776</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.525067779331</v>
+        <v>4049.465812105078</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.25810990396</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6305,10 +6305,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629257</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K27" t="n">
-        <v>488.143009511182</v>
+        <v>414.2869325418654</v>
       </c>
       <c r="L27" t="n">
         <v>843.497549143383</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111037</v>
       </c>
       <c r="C28" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111037</v>
       </c>
       <c r="D28" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111037</v>
       </c>
       <c r="E28" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111037</v>
       </c>
       <c r="F28" t="n">
         <v>95.71766921524075</v>
@@ -6411,25 +6411,25 @@
         <v>1913.07864997267</v>
       </c>
       <c r="S28" t="n">
-        <v>1781.312786268305</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.249922329876</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.565434123989</v>
+        <v>954.8666056896117</v>
       </c>
       <c r="W28" t="n">
-        <v>726.1482640870279</v>
+        <v>665.4494356526511</v>
       </c>
       <c r="X28" t="n">
-        <v>498.1587131890105</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.3661340454805</v>
+        <v>216.6673056111037</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
@@ -6469,22 +6469,22 @@
         <v>597.7080858612026</v>
       </c>
       <c r="L29" t="n">
-        <v>1446.817951496195</v>
+        <v>1033.333349091249</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443782</v>
+        <v>1994.738226038837</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872422</v>
+        <v>2957.067641467477</v>
       </c>
       <c r="O29" t="n">
-        <v>4049.465812105078</v>
+        <v>3820.580382176626</v>
       </c>
       <c r="P29" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q29" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.4013778014034</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="C31" t="n">
-        <v>263.4651948734965</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="D31" t="n">
-        <v>263.4651948734965</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.4651948734965</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F31" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
         <v>95.71766921524075</v>
@@ -6645,28 +6645,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.77411916334</v>
+        <v>1821.431339142722</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.816559682883</v>
+        <v>1599.473779662265</v>
       </c>
       <c r="U31" t="n">
-        <v>1317.516460879078</v>
+        <v>1310.368475204292</v>
       </c>
       <c r="V31" t="n">
-        <v>1062.831972673191</v>
+        <v>1310.368475204292</v>
       </c>
       <c r="W31" t="n">
-        <v>1062.831972673191</v>
+        <v>1020.951305167331</v>
       </c>
       <c r="X31" t="n">
-        <v>834.8424217751733</v>
+        <v>792.961754269314</v>
       </c>
       <c r="Y31" t="n">
-        <v>614.0498426316432</v>
+        <v>572.1691751257839</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
@@ -6703,19 +6703,19 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K32" t="n">
-        <v>597.7080858612026</v>
+        <v>918.6120443066557</v>
       </c>
       <c r="L32" t="n">
-        <v>1446.817951496195</v>
+        <v>1767.721909941648</v>
       </c>
       <c r="M32" t="n">
-        <v>2408.222828443782</v>
+        <v>2284.108388731332</v>
       </c>
       <c r="N32" t="n">
-        <v>3370.552243872422</v>
+        <v>2932.431605980414</v>
       </c>
       <c r="O32" t="n">
-        <v>4114.525067779331</v>
+        <v>3795.944346689563</v>
       </c>
       <c r="P32" t="n">
         <v>4495.25810990396</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>738.5463968580352</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>569.6102139301283</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>419.4935745177926</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>271.5804809353995</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>124.6905334374891</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>124.6905334374891</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>124.6905334374891</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
         <v>95.71766921524075</v>
@@ -6885,25 +6885,25 @@
         <v>1913.07864997267</v>
       </c>
       <c r="S34" t="n">
-        <v>1913.07864997267</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T34" t="n">
-        <v>1913.07864997267</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U34" t="n">
-        <v>1913.07864997267</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V34" t="n">
-        <v>1658.394161766783</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W34" t="n">
-        <v>1368.976991729822</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X34" t="n">
-        <v>1140.987440831805</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.194861688275</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
@@ -6940,22 +6940,22 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K35" t="n">
-        <v>597.7080858612026</v>
+        <v>918.6120443066557</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496195</v>
+        <v>1676.49732617665</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443782</v>
+        <v>2192.883804966333</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872422</v>
+        <v>2722.239765227109</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.525067779331</v>
+        <v>3585.752505936258</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.25810990396</v>
+        <v>4285.066269150655</v>
       </c>
       <c r="Q35" t="n">
         <v>4733.000021926294</v>
@@ -7016,22 +7016,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629257</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K36" t="n">
-        <v>488.143009511182</v>
+        <v>414.2869325418654</v>
       </c>
       <c r="L36" t="n">
-        <v>843.497549143383</v>
+        <v>769.6414721740664</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075619</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890737</v>
+        <v>1663.61554392142</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470408</v>
       </c>
       <c r="P36" t="n">
         <v>2436.525948037006</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.0060074145392</v>
+        <v>559.4568932234512</v>
       </c>
       <c r="C37" t="n">
-        <v>637.0698244866323</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="D37" t="n">
-        <v>637.0698244866323</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E37" t="n">
-        <v>637.0698244866323</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F37" t="n">
-        <v>490.179876988722</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>194.3872674976252</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7125,22 +7125,22 @@
         <v>1913.07864997267</v>
       </c>
       <c r="T37" t="n">
-        <v>1691.121090492213</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="U37" t="n">
-        <v>1691.121090492213</v>
+        <v>1733.989146338086</v>
       </c>
       <c r="V37" t="n">
-        <v>1436.436602286326</v>
+        <v>1479.304658132199</v>
       </c>
       <c r="W37" t="n">
-        <v>1436.436602286326</v>
+        <v>1189.887488095238</v>
       </c>
       <c r="X37" t="n">
-        <v>1208.447051388309</v>
+        <v>961.897937197221</v>
       </c>
       <c r="Y37" t="n">
-        <v>987.654472244779</v>
+        <v>741.1053580536909</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139483</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K38" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066557</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.642956557055</v>
+        <v>1767.721909941648</v>
       </c>
       <c r="M38" t="n">
-        <v>2038.029435346739</v>
+        <v>2284.108388731332</v>
       </c>
       <c r="N38" t="n">
-        <v>2657.180509552855</v>
+        <v>3246.437804159972</v>
       </c>
       <c r="O38" t="n">
-        <v>3520.693250262004</v>
+        <v>4109.950544869121</v>
       </c>
       <c r="P38" t="n">
-        <v>4220.007013476401</v>
+        <v>4490.683586993749</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252041</v>
+        <v>4728.425499016083</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7253,10 +7253,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629257</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K39" t="n">
-        <v>488.143009511182</v>
+        <v>414.2869325418654</v>
       </c>
       <c r="L39" t="n">
         <v>843.497549143383</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>432.4013778014034</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C40" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D40" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E40" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F40" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
         <v>95.71766921524075</v>
@@ -7356,28 +7356,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.77411916334</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T40" t="n">
-        <v>1406.816559682883</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U40" t="n">
-        <v>1117.71125522491</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V40" t="n">
-        <v>863.0267670190232</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W40" t="n">
-        <v>863.0267670190232</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X40" t="n">
-        <v>834.8424217751733</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y40" t="n">
-        <v>614.0498426316432</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="41">
@@ -7396,43 +7396,43 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139483</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K41" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.642956557055</v>
+        <v>1327.278034693954</v>
       </c>
       <c r="M41" t="n">
-        <v>2127.824549292079</v>
+        <v>2288.682911641542</v>
       </c>
       <c r="N41" t="n">
-        <v>2657.180509552855</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O41" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P41" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q41" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="C43" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="D43" t="n">
-        <v>95.71766921524075</v>
+        <v>287.343245342298</v>
       </c>
       <c r="E43" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F43" t="n">
         <v>95.71766921524075</v>
@@ -7602,19 +7602,19 @@
         <v>1498.656398353472</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.249922329876</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.565434123989</v>
+        <v>954.8666056896117</v>
       </c>
       <c r="W43" t="n">
-        <v>726.1482640870279</v>
+        <v>665.4494356526511</v>
       </c>
       <c r="X43" t="n">
-        <v>498.1587131890105</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.3661340454805</v>
+        <v>437.4598847546338</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139483</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066557</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.642956557055</v>
+        <v>1354.237307536702</v>
       </c>
       <c r="M44" t="n">
-        <v>2127.824549292079</v>
+        <v>2315.64218448429</v>
       </c>
       <c r="N44" t="n">
-        <v>2657.180509552855</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O44" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P44" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.6538521431477</v>
+        <v>646.7065581874467</v>
       </c>
       <c r="C46" t="n">
-        <v>95.71766921524075</v>
+        <v>477.7703752595398</v>
       </c>
       <c r="D46" t="n">
-        <v>95.71766921524075</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="E46" t="n">
-        <v>95.71766921524075</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="F46" t="n">
-        <v>95.71766921524075</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G46" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="H46" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7830,28 +7830,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.07864997267</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.07864997267</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T46" t="n">
-        <v>1728.291409715756</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="U46" t="n">
-        <v>1439.186105257782</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="V46" t="n">
-        <v>1184.501617051895</v>
+        <v>1566.554323096195</v>
       </c>
       <c r="W46" t="n">
-        <v>895.0844470149349</v>
+        <v>1277.137153059234</v>
       </c>
       <c r="X46" t="n">
-        <v>667.0948961169175</v>
+        <v>1049.147602161217</v>
       </c>
       <c r="Y46" t="n">
-        <v>446.3023169733874</v>
+        <v>828.3550230176864</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093301</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747269</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,22 +8695,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>90.70213529832358</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1546195792612</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.60209794880473</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>3.419393410990551</v>
@@ -8932,22 +8932,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>303.0171259582285</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061878</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9169,22 +9169,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>90.70213529832358</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>150.6078764300218</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880461</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>74.60209794880467</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>90.70213529832387</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>25.23975550835416</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>18.88241330822825</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>260.0527905534111</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0527905534112</v>
+        <v>25.23975550835416</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>74.60209794880461</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,16 +10126,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>194.3363706804282</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>296.913823841116</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>120.1689464528348</v>
       </c>
       <c r="O32" t="n">
-        <v>260.0527905534112</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>325.5151703433816</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0527905534112</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880461</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>74.60209794880473</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>90.70213529832358</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>4.620730212333335</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>74.60209794880461</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>296.913823841116</v>
       </c>
       <c r="M41" t="n">
-        <v>90.70213529832358</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>90.70213529832358</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>410.1153356819354</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>9.911330120255968</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0700504016732</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>60.09184015003299</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>64.99183578107538</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.66497472909802</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>97.68290229956058</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.599643269938</v>
       </c>
       <c r="T19" t="n">
-        <v>197.807153597626</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956058</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>36.93801752924838</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>63.81506508412093</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>84.06557276436213</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>23.90906138040617</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>25.68090799102696</v>
       </c>
       <c r="G28" t="n">
         <v>166.0700504016732</v>
@@ -24651,7 +24651,7 @@
         <v>90.9214402838827</v>
       </c>
       <c r="S28" t="n">
-        <v>60.09184015003328</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>99.80920749570565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>197.8071535976259</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
@@ -25095,7 +25095,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>68.9997667195347</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>90.9214402838827</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>60.09184015003316</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>18.38373478805136</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>108.9156428151554</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
         <v>145.148367782564</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>60.09184015003328</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>197.8071535976258</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>102.1456903037137</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0700504016732</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>60.09184015003316</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>34.13624673559003</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>36.79861603130689</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>915241.3155693085</v>
+        <v>915241.3155693086</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>915241.3155693086</v>
+        <v>915241.3155693085</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855570.8336490665</v>
+        <v>855570.8336490664</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855570.8336490664</v>
+        <v>855570.8336490663</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049993</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>555113.0228891707</v>
@@ -26328,34 +26328,34 @@
         <v>555113.0228891707</v>
       </c>
       <c r="G2" t="n">
-        <v>555113.0228891706</v>
+        <v>555113.0228891707</v>
       </c>
       <c r="H2" t="n">
-        <v>555113.0228891706</v>
+        <v>555113.0228891709</v>
       </c>
       <c r="I2" t="n">
-        <v>555113.0228891707</v>
+        <v>555113.0228891709</v>
       </c>
       <c r="J2" t="n">
         <v>555113.0228891706</v>
       </c>
       <c r="K2" t="n">
+        <v>555113.0228891707</v>
+      </c>
+      <c r="L2" t="n">
+        <v>555113.0228891701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>555113.0228891708</v>
+      </c>
+      <c r="N2" t="n">
         <v>555113.0228891704</v>
       </c>
-      <c r="L2" t="n">
-        <v>555113.0228891706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>555113.0228891704</v>
-      </c>
-      <c r="N2" t="n">
-        <v>555113.0228891703</v>
-      </c>
       <c r="O2" t="n">
-        <v>555113.0228891703</v>
+        <v>555113.0228891707</v>
       </c>
       <c r="P2" t="n">
-        <v>555113.0228891706</v>
+        <v>555113.0228891707</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145441</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.588086545074475e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.407704980418203e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>708251.096751828</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.745012392988431e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581165</v>
       </c>
       <c r="F4" t="n">
         <v>23693.12563581165</v>
@@ -26438,28 +26438,28 @@
         <v>23693.12563581165</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.12563581166</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.12563581166</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="K4" t="n">
         <v>23693.12563581165</v>
       </c>
       <c r="L4" t="n">
+        <v>23693.12563581165</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23693.12563581167</v>
+      </c>
+      <c r="N4" t="n">
         <v>23693.12563581166</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>23693.12563581165</v>
+      </c>
+      <c r="P4" t="n">
         <v>23693.12563581166</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23693.12563581164</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23693.12563581164</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23693.12563581164</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-290304.3147653844</v>
       </c>
       <c r="C6" t="n">
-        <v>299663.56444916</v>
+        <v>299663.5644491597</v>
       </c>
       <c r="D6" t="n">
         <v>299663.5644491593</v>
       </c>
       <c r="E6" t="n">
-        <v>-273499.4920339605</v>
+        <v>-272868.9708048804</v>
       </c>
       <c r="F6" t="n">
-        <v>434751.6047178674</v>
+        <v>435382.1259469475</v>
       </c>
       <c r="G6" t="n">
-        <v>434751.6047178673</v>
+        <v>435382.1259469476</v>
       </c>
       <c r="H6" t="n">
-        <v>434751.6047178673</v>
+        <v>435382.1259469478</v>
       </c>
       <c r="I6" t="n">
-        <v>434751.6047178673</v>
+        <v>435382.1259469478</v>
       </c>
       <c r="J6" t="n">
-        <v>258328.3855252744</v>
+        <v>258958.9067543546</v>
       </c>
       <c r="K6" t="n">
-        <v>434751.6047178671</v>
+        <v>435382.1259469473</v>
       </c>
       <c r="L6" t="n">
-        <v>434751.6047178672</v>
+        <v>435382.125946947</v>
       </c>
       <c r="M6" t="n">
-        <v>304621.3647484578</v>
+        <v>305251.8859775383</v>
       </c>
       <c r="N6" t="n">
-        <v>434751.6047178671</v>
+        <v>435382.1259469473</v>
       </c>
       <c r="O6" t="n">
-        <v>434751.6047178671</v>
+        <v>435382.1259469475</v>
       </c>
       <c r="P6" t="n">
-        <v>434751.6047178673</v>
+        <v>435382.1259469475</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490193</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1196.470865190509</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731065</v>
+        <v>687.4987572731067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.183592435954</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.066570977350887e-12</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.183592435954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>324.6492599371747</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>148.8283177119011</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>203.5992422935956</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724745</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>55.19449910821515</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>135.3257377546725</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.86620951636155</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491435</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>152.4816825345735</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>65.60828460674344</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>14.21956406210774</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0517176144024</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856238</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535759</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>648.7905592051115</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141884</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M11" t="n">
         <v>521.602503827963</v>
       </c>
       <c r="N11" t="n">
-        <v>625.4051254607232</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O11" t="n">
         <v>872.2350916254035</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370094</v>
+        <v>447.2979650563659</v>
       </c>
       <c r="R11" t="n">
         <v>119.1340348585824</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239234</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K12" t="n">
         <v>232.149412270966</v>
@@ -35509,7 +35509,7 @@
         <v>303.5588430275569</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.0997147594869</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>648.7905592051115</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141884</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M14" t="n">
-        <v>824.6196297861915</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N14" t="n">
         <v>534.7029901623996</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254035</v>
+        <v>545.2760123732769</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004006</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.1433454771047</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R14" t="n">
         <v>119.1340348585824</v>
@@ -35889,22 +35889,22 @@
         <v>648.7905592051115</v>
       </c>
       <c r="L17" t="n">
-        <v>440.0255184141884</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M17" t="n">
         <v>521.602503827963</v>
       </c>
       <c r="N17" t="n">
-        <v>625.4051254607232</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254035</v>
+        <v>491.4349103626581</v>
       </c>
       <c r="P17" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q17" t="n">
-        <v>452.4583361370094</v>
+        <v>390.7512219071265</v>
       </c>
       <c r="R17" t="n">
         <v>119.1340348585824</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.239820351197</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K18" t="n">
         <v>232.149412270966</v>
@@ -35971,7 +35971,7 @@
         <v>358.9439794264657</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901369</v>
+        <v>513.0251837389416</v>
       </c>
       <c r="N18" t="n">
         <v>464.5810270859778</v>
@@ -36123,25 +36123,25 @@
         <v>351.51249545324</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051115</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L20" t="n">
-        <v>530.7276537125123</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M20" t="n">
-        <v>521.602503827963</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N20" t="n">
-        <v>534.7029901623996</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254035</v>
+        <v>516.6746658710123</v>
       </c>
       <c r="P20" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q20" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R20" t="n">
         <v>119.1340348585824</v>
@@ -36363,7 +36363,7 @@
         <v>324.6451466339468</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646388</v>
+        <v>458.9079317224167</v>
       </c>
       <c r="M23" t="n">
         <v>971.1160373207955</v>
@@ -36372,16 +36372,16 @@
         <v>972.0499145743838</v>
       </c>
       <c r="O23" t="n">
-        <v>491.4349103626581</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P23" t="n">
-        <v>644.6316209823291</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771047</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498559998</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811662</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K26" t="n">
         <v>324.6451466339468</v>
@@ -36609,7 +36609,7 @@
         <v>972.0499145743838</v>
       </c>
       <c r="O26" t="n">
-        <v>751.4877009160693</v>
+        <v>516.6746658710123</v>
       </c>
       <c r="P26" t="n">
         <v>384.578830428918</v>
@@ -36618,7 +36618,7 @@
         <v>240.1433454771047</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41761498559998</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.239820351197</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K27" t="n">
         <v>232.149412270966</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264657</v>
+        <v>433.5460773752703</v>
       </c>
       <c r="M27" t="n">
         <v>438.4230857901369</v>
@@ -36837,7 +36837,7 @@
         <v>324.6451466339468</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646388</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M29" t="n">
         <v>971.1160373207955</v>
@@ -36846,16 +36846,16 @@
         <v>972.0499145743838</v>
       </c>
       <c r="O29" t="n">
-        <v>685.7712810430863</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P29" t="n">
-        <v>384.578830428918</v>
+        <v>681.492654270034</v>
       </c>
       <c r="Q29" t="n">
         <v>240.1433454771047</v>
       </c>
       <c r="R29" t="n">
-        <v>119.1340348585824</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>182.4158802811662</v>
       </c>
       <c r="K32" t="n">
-        <v>324.6451466339468</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L32" t="n">
         <v>857.6867329646388</v>
       </c>
       <c r="M32" t="n">
-        <v>971.1160373207955</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743838</v>
+        <v>654.8719366152344</v>
       </c>
       <c r="O32" t="n">
-        <v>751.4877009160693</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P32" t="n">
-        <v>384.578830428918</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q32" t="n">
         <v>240.1433454771047</v>
@@ -37308,25 +37308,25 @@
         <v>182.4158802811662</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339468</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646388</v>
+        <v>765.54068875757</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207955</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743838</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O35" t="n">
-        <v>751.4877009160693</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P35" t="n">
-        <v>384.578830428918</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771047</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R35" t="n">
         <v>53.41761498559998</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.239820351197</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K36" t="n">
         <v>232.149412270966</v>
@@ -37402,7 +37402,7 @@
         <v>402.5566389383717</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275569</v>
+        <v>378.1609409763616</v>
       </c>
       <c r="Q36" t="n">
         <v>152.4976168106821</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K38" t="n">
         <v>648.7905592051115</v>
       </c>
       <c r="L38" t="n">
-        <v>440.0255184141884</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M38" t="n">
         <v>521.602503827963</v>
       </c>
       <c r="N38" t="n">
-        <v>625.4051254607232</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O38" t="n">
         <v>872.2350916254035</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585824</v>
+        <v>58.03834519793332</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.239820351197</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K39" t="n">
         <v>232.149412270966</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264657</v>
+        <v>433.5460773752703</v>
       </c>
       <c r="M39" t="n">
         <v>438.4230857901369</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051115</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L41" t="n">
-        <v>440.0255184141884</v>
+        <v>736.9393422553044</v>
       </c>
       <c r="M41" t="n">
-        <v>612.3046391262866</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N41" t="n">
-        <v>534.7029901623996</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O41" t="n">
         <v>872.2350916254035</v>
       </c>
       <c r="P41" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q41" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585824</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K44" t="n">
         <v>648.7905592051115</v>
@@ -38025,22 +38025,22 @@
         <v>440.0255184141884</v>
       </c>
       <c r="M44" t="n">
-        <v>612.3046391262866</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N44" t="n">
-        <v>534.7029901623996</v>
+        <v>944.818325844335</v>
       </c>
       <c r="O44" t="n">
         <v>872.2350916254035</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585824</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
